--- a/Holcene Revision/Modified_WDC_GICC_Compare.xlsx
+++ b/Holcene Revision/Modified_WDC_GICC_Compare.xlsx
@@ -1033,16 +1033,16 @@
         <v>733.55396</v>
       </c>
       <c r="C30" t="n">
-        <v>3559.820289855073</v>
+        <v>3560.820289855073</v>
       </c>
       <c r="D30" t="n">
         <v>3559.4512</v>
       </c>
       <c r="E30" t="n">
-        <v>0.369089855072616</v>
+        <v>1.369089855072616</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7505909303413318</v>
+        <v>1.750590930341332</v>
       </c>
     </row>
     <row r="31">
@@ -1053,13 +1053,13 @@
         <v>736.48346</v>
       </c>
       <c r="C31" t="n">
-        <v>3576.999176470588</v>
+        <v>3577.999176470588</v>
       </c>
       <c r="D31" t="n">
         <v>3576.990375</v>
       </c>
       <c r="E31" t="n">
-        <v>0.008801470587968652</v>
+        <v>1.008801470587969</v>
       </c>
       <c r="F31" t="n">
         <v>-0.3602883844846474</v>
@@ -1082,7 +1082,7 @@
         <v>-0.4585555555549945</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.4673570261429632</v>
+        <v>-1.467357026142963</v>
       </c>
     </row>
   </sheetData>
